--- a/gastric_esophageal_cancer_data.xlsx
+++ b/gastric_esophageal_cancer_data.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elsiema/gastric cancer/final_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB41726-B5B2-B24E-A18E-BBF182D1C8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A1E517-F505-4DCD-8F53-E410DC6C09B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - survival_df_full" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -119,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -339,46 +328,46 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,7 +381,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1547,44 +1536,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="17.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="18.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.33203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.33203125" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.33203125" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="17.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="18.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.28515625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
@@ -1623,7 +1612,7 @@
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="2" customFormat="1" ht="64.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="20.25" customHeight="1">
       <c r="A3" s="4">
         <v>79</v>
       </c>
@@ -1765,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3">
         <v>61</v>
       </c>
@@ -1836,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3">
         <v>79</v>
       </c>
@@ -1907,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3">
         <v>61</v>
       </c>
@@ -1978,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3">
         <v>56</v>
       </c>
@@ -2049,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3">
         <v>63</v>
       </c>
@@ -2120,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3">
         <v>70</v>
       </c>
@@ -2191,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3">
         <v>50</v>
       </c>
@@ -2262,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3">
         <v>63</v>
       </c>
@@ -2333,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3">
         <v>63</v>
       </c>
@@ -2404,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3">
         <v>67</v>
       </c>
@@ -2475,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="3">
         <v>48</v>
       </c>
@@ -2546,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>66</v>
       </c>
@@ -2617,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="3">
         <v>61</v>
       </c>
@@ -2688,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="3">
         <v>63</v>
       </c>
@@ -2759,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="3">
         <v>59</v>
       </c>
@@ -2830,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="3">
         <v>58</v>
       </c>
@@ -2901,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="3">
         <v>48</v>
       </c>
@@ -2972,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="3">
         <v>45</v>
       </c>
@@ -3043,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="3">
         <v>31</v>
       </c>
@@ -3114,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="3">
         <v>76</v>
       </c>
@@ -3185,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="3">
         <v>55</v>
       </c>
@@ -3256,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="3">
         <v>65</v>
       </c>
@@ -3327,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="3">
         <v>53</v>
       </c>
@@ -3398,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="3">
         <v>54</v>
       </c>
@@ -3469,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="3">
         <v>77</v>
       </c>
@@ -3540,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="3">
         <v>42</v>
       </c>
@@ -3611,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="3">
         <v>57</v>
       </c>
@@ -3682,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="3">
         <v>63</v>
       </c>
@@ -3753,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="3">
         <v>67</v>
       </c>
@@ -3824,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="3">
         <v>50</v>
       </c>
@@ -3895,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3966,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="3">
         <v>44</v>
       </c>
@@ -4037,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="3">
         <v>73</v>
       </c>
@@ -4108,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="3">
         <v>72</v>
       </c>
@@ -4179,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="3">
         <v>52</v>
       </c>
@@ -4250,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="3">
         <v>70</v>
       </c>
@@ -4321,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="3">
         <v>61</v>
       </c>
@@ -4392,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="3">
         <v>49</v>
       </c>
@@ -4463,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="3">
         <v>70</v>
       </c>
@@ -4534,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="3">
         <v>51</v>
       </c>
@@ -4605,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="3">
         <v>69</v>
       </c>
@@ -4676,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="3">
         <v>64</v>
       </c>
@@ -4747,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="3">
         <v>64</v>
       </c>
@@ -4818,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="3">
         <v>37</v>
       </c>
@@ -4889,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="3">
         <v>64</v>
       </c>
@@ -4960,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="3">
         <v>54</v>
       </c>
@@ -5031,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -5102,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="3">
         <v>38</v>
       </c>
@@ -5173,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="3">
         <v>38</v>
       </c>
@@ -5244,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="3">
         <v>71</v>
       </c>
@@ -5315,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="3">
         <v>70</v>
       </c>
@@ -5386,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="3">
         <v>69</v>
       </c>
@@ -5457,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="3">
         <v>59</v>
       </c>
@@ -5528,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="3">
         <v>63</v>
       </c>
@@ -5599,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="3">
         <v>77</v>
       </c>
@@ -5670,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="3">
         <v>34</v>
       </c>
@@ -5741,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="3">
         <v>85</v>
       </c>
@@ -5812,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="3">
         <v>53</v>
       </c>
@@ -5883,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5954,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="3">
         <v>70</v>
       </c>
@@ -6025,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="3">
         <v>70</v>
       </c>
@@ -6096,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="3">
         <v>59</v>
       </c>
@@ -6167,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="3">
         <v>75</v>
       </c>
@@ -6238,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="3">
         <v>73</v>
       </c>
@@ -6309,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="3">
         <v>36</v>
       </c>
@@ -6380,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="3">
         <v>20</v>
       </c>
@@ -6451,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="3">
         <v>46</v>
       </c>
@@ -6522,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="3">
         <v>62</v>
       </c>
@@ -6593,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="3">
         <v>58</v>
       </c>
@@ -6664,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="3">
         <v>47</v>
       </c>
@@ -6735,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="3">
         <v>37</v>
       </c>
@@ -6806,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -6877,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="3">
         <v>70</v>
       </c>
@@ -6948,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="3">
         <v>55</v>
       </c>
@@ -7019,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="3">
         <v>63</v>
       </c>
@@ -7090,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="3">
         <v>38</v>
       </c>
@@ -7161,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="3">
         <v>42</v>
       </c>
@@ -7232,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="3">
         <v>62</v>
       </c>
@@ -7303,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="3">
         <v>66</v>
       </c>
@@ -7374,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="3">
         <v>65</v>
       </c>
@@ -7445,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="3">
         <v>56</v>
       </c>
@@ -7516,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="3">
         <v>66</v>
       </c>
@@ -7587,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="3">
         <v>75</v>
       </c>
@@ -7658,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="3">
         <v>60</v>
       </c>
@@ -7708,7 +7697,7 @@
         <v>1.9</v>
       </c>
       <c r="Q87" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R87" s="3">
         <v>0</v>
@@ -7729,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="3">
         <v>74</v>
       </c>
@@ -7800,7 +7789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="3">
         <v>78</v>
       </c>
@@ -7871,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="3">
         <v>57</v>
       </c>
@@ -7942,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="3">
         <v>56</v>
       </c>
@@ -8013,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="3">
         <v>59</v>
       </c>
@@ -8084,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="3">
         <v>55</v>
       </c>
@@ -8155,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="3">
         <v>66</v>
       </c>
@@ -8226,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="3">
         <v>53</v>
       </c>
@@ -8297,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="3">
         <v>55</v>
       </c>
@@ -8368,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="3">
         <v>66</v>
       </c>
@@ -8439,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="3">
         <v>31</v>
       </c>
@@ -8510,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="3">
         <v>82</v>
       </c>
@@ -8581,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="3">
         <v>79</v>
       </c>
@@ -8652,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="3">
         <v>78</v>
       </c>
@@ -8723,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="3">
         <v>42</v>
       </c>
@@ -8794,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="3">
         <v>57</v>
       </c>
@@ -8865,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="3">
         <v>69</v>
       </c>
@@ -8936,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="3">
         <v>50</v>
       </c>
@@ -9007,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="3">
         <v>50</v>
       </c>
@@ -9078,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="3">
         <v>59</v>
       </c>
@@ -9149,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="3">
         <v>54</v>
       </c>
@@ -9220,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="3">
         <v>76</v>
       </c>
@@ -9291,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="3">
         <v>72</v>
       </c>
@@ -9362,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="3">
         <v>62</v>
       </c>
@@ -9433,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="3">
         <v>73</v>
       </c>
@@ -9504,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="3">
         <v>46</v>
       </c>
@@ -9575,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="3">
         <v>83</v>
       </c>
@@ -9646,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="3">
         <v>40</v>
       </c>
@@ -9717,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="3">
         <v>38</v>
       </c>
@@ -9788,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="3">
         <v>61</v>
       </c>
@@ -9859,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="3">
         <v>64</v>
       </c>
@@ -9930,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="3">
         <v>60</v>
       </c>
@@ -10001,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="3">
         <v>39</v>
       </c>
@@ -10072,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="3">
         <v>82</v>
       </c>
@@ -10143,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="3">
         <v>52</v>
       </c>
@@ -10214,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="3">
         <v>54</v>
       </c>
@@ -10285,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="3">
         <v>62</v>
       </c>
@@ -10356,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="3">
         <v>51</v>
       </c>
@@ -10427,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="3">
         <v>72</v>
       </c>
@@ -10498,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="3">
         <v>78</v>
       </c>
@@ -10569,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A128" s="3">
         <v>66</v>
       </c>
@@ -10640,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="3">
         <v>69</v>
       </c>
@@ -10711,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="3">
         <v>86</v>
       </c>
@@ -10782,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="3">
         <v>45</v>
       </c>
@@ -10853,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="3">
         <v>63</v>
       </c>
@@ -10924,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A133" s="3">
         <v>77</v>
       </c>
@@ -10995,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="3">
         <v>56</v>
       </c>
@@ -11066,7 +11055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="3">
         <v>70</v>
       </c>
@@ -11137,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A136" s="3">
         <v>72</v>
       </c>
@@ -11208,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A137" s="3">
         <v>46</v>
       </c>
@@ -11279,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A138" s="3">
         <v>68</v>
       </c>
@@ -11350,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A139" s="3">
         <v>55</v>
       </c>
@@ -11421,7 +11410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A140" s="3">
         <v>62</v>
       </c>
@@ -11492,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="3">
         <v>68</v>
       </c>
@@ -11563,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="3">
         <v>46</v>
       </c>
@@ -11634,7 +11623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A143" s="3">
         <v>60</v>
       </c>
@@ -11705,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="3">
         <v>62</v>
       </c>
@@ -11776,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="3">
         <v>56</v>
       </c>
@@ -11847,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="3">
         <v>72</v>
       </c>
@@ -11918,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A147" s="3">
         <v>47</v>
       </c>
@@ -11989,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A148" s="3">
         <v>63</v>
       </c>
@@ -12060,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A149" s="3">
         <v>69</v>
       </c>
@@ -12131,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A150" s="3">
         <v>75</v>
       </c>
@@ -12202,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A151" s="3">
         <v>59</v>
       </c>
@@ -12273,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A152" s="3">
         <v>70</v>
       </c>
@@ -12363,15 +12352,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A59323A-FA19-0049-83BA-41CD71D1BA97}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:B152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="25.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -12379,7 +12369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>208.5</v>
       </c>
@@ -12387,7 +12377,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>397.5</v>
       </c>
@@ -12395,7 +12385,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>243</v>
       </c>
@@ -12403,7 +12393,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>287.25</v>
       </c>
@@ -12411,7 +12401,7 @@
         <v>6.466666666666665</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>533</v>
       </c>
@@ -12419,7 +12409,7 @@
         <v>19.43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>251</v>
       </c>
@@ -12427,7 +12417,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>121.5</v>
       </c>
@@ -12435,7 +12425,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>337</v>
       </c>
@@ -12443,7 +12433,7 @@
         <v>12.245000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>252.25</v>
       </c>
@@ -12451,7 +12441,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>159.33333333333348</v>
       </c>
@@ -12459,7 +12449,7 @@
         <v>5.2450000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>184</v>
       </c>
@@ -12467,7 +12457,7 @@
         <v>6.415</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>242</v>
       </c>
@@ -12475,7 +12465,7 @@
         <v>7.2149999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>332</v>
       </c>
@@ -12483,7 +12473,7 @@
         <v>9.125</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>132</v>
       </c>
@@ -12491,7 +12481,7 @@
         <v>11.345000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>345.5</v>
       </c>
@@ -12499,7 +12489,7 @@
         <v>7.8549999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>396</v>
       </c>
@@ -12507,7 +12497,7 @@
         <v>9.89</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>274.5</v>
       </c>
@@ -12515,7 +12505,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>223.5</v>
       </c>
@@ -12523,7 +12513,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>333</v>
       </c>
@@ -12531,7 +12521,7 @@
         <v>9.2850000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>440.5</v>
       </c>
@@ -12539,7 +12529,7 @@
         <v>12.094999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>194.5</v>
       </c>
@@ -12547,7 +12537,7 @@
         <v>6.3650000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>244</v>
       </c>
@@ -12555,7 +12545,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>78.333333333333343</v>
       </c>
@@ -12563,7 +12553,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>337</v>
       </c>
@@ -12571,7 +12561,7 @@
         <v>9.0850000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>62.75</v>
       </c>
@@ -12579,7 +12569,7 @@
         <v>10.435</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>121</v>
       </c>
@@ -12587,7 +12577,7 @@
         <v>11.745000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>138</v>
       </c>
@@ -12595,7 +12585,7 @@
         <v>6.8100000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>436.5</v>
       </c>
@@ -12603,7 +12593,7 @@
         <v>9.0850000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>148</v>
       </c>
@@ -12611,7 +12601,7 @@
         <v>11.914999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>239.5</v>
       </c>
@@ -12619,7 +12609,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>644.5</v>
       </c>
@@ -12627,7 +12617,7 @@
         <v>5.2899999999999991</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>249.5</v>
       </c>
@@ -12635,7 +12625,7 @@
         <v>7.125</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>260.5</v>
       </c>
@@ -12643,7 +12633,7 @@
         <v>9.9824999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>104.5</v>
       </c>
@@ -12651,7 +12641,7 @@
         <v>7.120000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>227</v>
       </c>
@@ -12659,7 +12649,7 @@
         <v>9.6550000000000011</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>179</v>
       </c>
@@ -12667,7 +12657,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>247</v>
       </c>
@@ -12675,7 +12665,7 @@
         <v>14.350000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>216</v>
       </c>
@@ -12683,7 +12673,7 @@
         <v>6.0549999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>205.5</v>
       </c>
@@ -12691,7 +12681,7 @@
         <v>5.2650000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>329.5</v>
       </c>
@@ -12699,7 +12689,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>237</v>
       </c>
@@ -12707,7 +12697,7 @@
         <v>8.8849999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>349.5</v>
       </c>
@@ -12715,7 +12705,7 @@
         <v>9.1850000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>229.5</v>
       </c>
@@ -12723,7 +12713,7 @@
         <v>8.0449999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>143</v>
       </c>
@@ -12731,7 +12721,7 @@
         <v>14.004999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>268.5</v>
       </c>
@@ -12739,7 +12729,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>256.5</v>
       </c>
@@ -12747,7 +12737,7 @@
         <v>12.260000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>216</v>
       </c>
@@ -12755,7 +12745,7 @@
         <v>11.745000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>163</v>
       </c>
@@ -12763,7 +12753,7 @@
         <v>5.8150000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>157.5</v>
       </c>
@@ -12771,7 +12761,7 @@
         <v>3.0150000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>289.5</v>
       </c>
@@ -12779,7 +12769,7 @@
         <v>9.8149999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>275</v>
       </c>
@@ -12787,7 +12777,7 @@
         <v>5.9450000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>139.5</v>
       </c>
@@ -12795,7 +12785,7 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>296</v>
       </c>
@@ -12803,7 +12793,7 @@
         <v>7.7949999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>310</v>
       </c>
@@ -12811,7 +12801,7 @@
         <v>5.2050000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>399.5</v>
       </c>
@@ -12819,7 +12809,7 @@
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>134</v>
       </c>
@@ -12827,7 +12817,7 @@
         <v>5.1349999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>141.5</v>
       </c>
@@ -12835,7 +12825,7 @@
         <v>3.7374999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>301</v>
       </c>
@@ -12843,7 +12833,7 @@
         <v>6.0250000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>366</v>
       </c>
@@ -12851,7 +12841,7 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>294</v>
       </c>
@@ -12859,7 +12849,7 @@
         <v>7.1099999999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>281.5</v>
       </c>
@@ -12867,7 +12857,7 @@
         <v>11.47</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>292.5</v>
       </c>
@@ -12875,7 +12865,7 @@
         <v>6.6850000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>211</v>
       </c>
@@ -12883,7 +12873,7 @@
         <v>27.104999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>219</v>
       </c>
@@ -12891,7 +12881,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>314</v>
       </c>
@@ -12899,7 +12889,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>247</v>
       </c>
@@ -12907,7 +12897,7 @@
         <v>10.844999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>382.5</v>
       </c>
@@ -12915,7 +12905,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>240.5</v>
       </c>
@@ -12923,7 +12913,7 @@
         <v>5.5949999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>261.5</v>
       </c>
@@ -12931,7 +12921,7 @@
         <v>7.7949999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>204</v>
       </c>
@@ -12939,7 +12929,7 @@
         <v>9.6950000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>379</v>
       </c>
@@ -12947,7 +12937,7 @@
         <v>6.3100000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>322</v>
       </c>
@@ -12955,7 +12945,7 @@
         <v>9.9350000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>329.5</v>
       </c>
@@ -12963,7 +12953,7 @@
         <v>6.2750000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>453.5</v>
       </c>
@@ -12971,7 +12961,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>332.5</v>
       </c>
@@ -12979,7 +12969,7 @@
         <v>7.7700000000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>229.5</v>
       </c>
@@ -12987,7 +12977,7 @@
         <v>11.79</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>197</v>
       </c>
@@ -12995,7 +12985,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>302</v>
       </c>
@@ -13003,7 +12993,7 @@
         <v>15.305</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>250.5</v>
       </c>
@@ -13011,7 +13001,7 @@
         <v>13.260000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>398</v>
       </c>
@@ -13019,7 +13009,7 @@
         <v>16.914999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>77</v>
       </c>
@@ -13027,7 +13017,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>197.5</v>
       </c>
@@ -13035,7 +13025,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>237</v>
       </c>
@@ -13043,7 +13033,7 @@
         <v>24.064999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>282</v>
       </c>
@@ -13051,7 +13041,7 @@
         <v>10.725000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>181</v>
       </c>
@@ -13059,7 +13049,7 @@
         <v>5.4249999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>256</v>
       </c>
@@ -13067,7 +13057,7 @@
         <v>5.9550000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>318</v>
       </c>
@@ -13075,7 +13065,7 @@
         <v>15.684999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>408.5</v>
       </c>
@@ -13083,7 +13073,7 @@
         <v>10.36</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>470</v>
       </c>
@@ -13091,7 +13081,7 @@
         <v>5.9499999999999993</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>244.5</v>
       </c>
@@ -13099,7 +13089,7 @@
         <v>11.745000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>193.5</v>
       </c>
@@ -13107,7 +13097,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>315</v>
       </c>
@@ -13115,7 +13105,7 @@
         <v>15.675000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>236.5</v>
       </c>
@@ -13123,7 +13113,7 @@
         <v>14.21</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>318</v>
       </c>
@@ -13131,7 +13121,7 @@
         <v>6.2949999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>248</v>
       </c>
@@ -13139,7 +13129,7 @@
         <v>6.2850000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>265</v>
       </c>
@@ -13147,7 +13137,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>263.5</v>
       </c>
@@ -13155,7 +13145,7 @@
         <v>5.5250000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>168.5</v>
       </c>
@@ -13163,7 +13153,7 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>216</v>
       </c>
@@ -13171,7 +13161,7 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>431.5</v>
       </c>
@@ -13179,7 +13169,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>223</v>
       </c>
@@ -13187,7 +13177,7 @@
         <v>7.4849999999999994</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>347</v>
       </c>
@@ -13195,7 +13185,7 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>288</v>
       </c>
@@ -13203,7 +13193,7 @@
         <v>7.7650000000000006</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>326.5</v>
       </c>
@@ -13211,7 +13201,7 @@
         <v>6.5299999999999994</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>331</v>
       </c>
@@ -13219,7 +13209,7 @@
         <v>19.625</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>145.5</v>
       </c>
@@ -13227,7 +13217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>277.5</v>
       </c>
@@ -13235,7 +13225,7 @@
         <v>7.7450000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>142</v>
       </c>
@@ -13243,7 +13233,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>389.5</v>
       </c>
@@ -13251,7 +13241,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>331</v>
       </c>
@@ -13259,7 +13249,7 @@
         <v>9.59</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>137</v>
       </c>
@@ -13267,7 +13257,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>187</v>
       </c>
@@ -13275,7 +13265,7 @@
         <v>8.6050000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>496.5</v>
       </c>
@@ -13283,7 +13273,7 @@
         <v>9.9350000000000005</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>514.5</v>
       </c>
@@ -13291,7 +13281,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>224.5</v>
       </c>
@@ -13299,7 +13289,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>164.66666666666652</v>
       </c>
@@ -13307,7 +13297,7 @@
         <v>7.0166666666666657</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>103</v>
       </c>
@@ -13315,7 +13305,7 @@
         <v>15.850000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>196</v>
       </c>
@@ -13323,7 +13313,7 @@
         <v>10.315000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>263</v>
       </c>
@@ -13331,7 +13321,7 @@
         <v>9.375</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>193</v>
       </c>
@@ -13339,7 +13329,7 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>304.5</v>
       </c>
@@ -13347,7 +13337,7 @@
         <v>12.295</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>264</v>
       </c>
@@ -13355,7 +13345,7 @@
         <v>7.6050000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>381.5</v>
       </c>
@@ -13363,7 +13353,7 @@
         <v>10.55</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>389.5</v>
       </c>
@@ -13371,7 +13361,7 @@
         <v>8.120000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>290</v>
       </c>
@@ -13379,7 +13369,7 @@
         <v>6.0350000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>332</v>
       </c>
@@ -13387,7 +13377,7 @@
         <v>8.2850000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>213</v>
       </c>
@@ -13395,7 +13385,7 @@
         <v>4.4850000000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>156.5</v>
       </c>
@@ -13403,7 +13393,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>189.5</v>
       </c>
@@ -13411,7 +13401,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>324.5</v>
       </c>
@@ -13419,7 +13409,7 @@
         <v>5.2150000000000007</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>229</v>
       </c>
@@ -13427,7 +13417,7 @@
         <v>5.6349999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>142</v>
       </c>
@@ -13435,7 +13425,7 @@
         <v>8.1649999999999991</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>206</v>
       </c>
@@ -13443,7 +13433,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>293.5</v>
       </c>
@@ -13451,7 +13441,7 @@
         <v>15.525</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>292.5</v>
       </c>
@@ -13459,7 +13449,7 @@
         <v>5.915</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>161</v>
       </c>
@@ -13467,7 +13457,7 @@
         <v>5.5200000000000005</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>441.5</v>
       </c>
@@ -13475,7 +13465,7 @@
         <v>8.5350000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>325</v>
       </c>
@@ -13483,7 +13473,7 @@
         <v>9.7750000000000004</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>198</v>
       </c>
@@ -13491,7 +13481,7 @@
         <v>17.564999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>205.5</v>
       </c>
@@ -13499,7 +13489,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>531</v>
       </c>
@@ -13507,7 +13497,7 @@
         <v>4.7149999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>188.5</v>
       </c>
@@ -13515,7 +13505,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>362</v>
       </c>
@@ -13523,7 +13513,7 @@
         <v>11.945</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>88</v>
       </c>
@@ -13531,7 +13521,7 @@
         <v>8.7949999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>254</v>
       </c>
@@ -13539,7 +13529,7 @@
         <v>9.4250000000000007</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>162.5</v>
       </c>
@@ -13547,7 +13537,7 @@
         <v>12.415000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>300</v>
       </c>
@@ -13555,7 +13545,7 @@
         <v>14.605</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>278</v>
       </c>
@@ -13563,7 +13553,7 @@
         <v>9.1849999999999987</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>488.5</v>
       </c>
@@ -13571,7 +13561,7 @@
         <v>7.165</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>389.5</v>
       </c>
